--- a/pred_ohlcv/54_21/2019-11-13 SALT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 SALT ohlcv.xlsx
@@ -652,7 +652,7 @@
         <v>-74244.43179433999</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-74244.43179433999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-70617.32679434</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-70348.61379434</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>-71965.61379434</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-81189.11699434</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-81189.11699434</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-81184.11699434</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-119321.70949434</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-119321.70949434</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-159177.20476369</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-159177.20476369</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>-159177.20476369</v>
       </c>
       <c r="H72">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>-158833.20476369</v>
       </c>
       <c r="H73">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-158833.20476369</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-158875.20476369</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>-158870.20476369</v>
       </c>
       <c r="H76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-159270.20476369</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-159270.20476369</v>
       </c>
       <c r="H78">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-159265.20476369</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-161855.43766369</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>-161503.43766369</v>
       </c>
       <c r="H81">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-161565.43766369</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-161577.43766369</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-161572.43766369</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-161585.21766369</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>-161535.21766369</v>
       </c>
       <c r="H86">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-161530.21766369</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-183237.2706636899</v>
       </c>
       <c r="H88">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-182473.8505636899</v>
       </c>
       <c r="H89">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-182500.00096369</v>
       </c>
       <c r="H90">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-273699.99466369</v>
       </c>
       <c r="H91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>-272499.99466369</v>
       </c>
       <c r="H92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-271943.99466369</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-271943.99466369</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-272010.55326369</v>
       </c>
       <c r="H95">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-274015.55326369</v>
       </c>
       <c r="H96">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-273610.55326369</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-273642.43826369</v>
       </c>
       <c r="H98">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-284293.18546369</v>
       </c>
       <c r="H99">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-283120.18546369</v>
       </c>
       <c r="H100">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-293739.0476636899</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-293756.0476636899</v>
       </c>
       <c r="H102">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-293750.0476636899</v>
       </c>
       <c r="H103">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-292931.0476636899</v>
       </c>
       <c r="H104">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-292931.0476636899</v>
       </c>
       <c r="H105">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-292931.0476636899</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-292926.0476636899</v>
       </c>
       <c r="H107">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-311931.0476636899</v>
       </c>
       <c r="H108">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-311931.0476636899</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-311926.0476636899</v>
       </c>
       <c r="H110">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-322038.3363636899</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-322033.3363636899</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-343951.8347636899</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-341374.8347636899</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-341374.8347636899</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-341374.8347636899</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-340790.8347636899</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-339282.0213636899</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-369911.3613636899</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>-364440.24666369</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-365767.48666369</v>
       </c>
       <c r="H132">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-365662.48666369</v>
       </c>
       <c r="H133">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-365662.48666369</v>
       </c>
       <c r="H134">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-365662.48666369</v>
       </c>
       <c r="H135">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-365142.48666369</v>
       </c>
       <c r="H136">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-364984.7465723499</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-377076.0009723499</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-374592.3112826699</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-374592.3112826699</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H153">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-375798.1982826699</v>
       </c>
       <c r="H154">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-330741.7688259098</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-330741.7688259098</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-441891.2925259098</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-11-13 SALT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-11-13 SALT ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-42603.06999434</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-42593.31119434</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-42613.31119434</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -652,7 +652,7 @@
         <v>-74244.43179433999</v>
       </c>
       <c r="H10">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-74244.43179433999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-74249.43179433999</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-70617.32679434</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>-70348.61379434</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -860,7 +860,7 @@
         <v>-81189.11699434</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>-81189.11699434</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>-81184.11699434</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-119321.70949434</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>-119321.70949434</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-158875.20476369</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-159270.20476369</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-369911.3613636899</v>
       </c>
       <c r="H119">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-377076.0009723499</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-374592.3112826699</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-374592.3112826699</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-374998.3112826699</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-377025.1982826699</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-375798.1982826699</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-374480.2052826699</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>-373419.2052826699</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-376619.2052826699</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>-330741.7688259098</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>-330741.7688259098</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>-441891.2925259098</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
